--- a/src/label.2020-07-19.xlsx
+++ b/src/label.2020-07-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170" count="170">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171" count="171">
   <x:si>
     <x:t>type</x:t>
   </x:si>
@@ -10909,6 +10909,1371 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
+    <x:row r="2107" spans="1:1">
+      <x:c r="A2107" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2108" spans="1:1">
+      <x:c r="A2108" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2109" spans="1:1">
+      <x:c r="A2109" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2110" spans="1:1">
+      <x:c r="A2110" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2111" spans="1:1">
+      <x:c r="A2111" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2112" spans="1:1">
+      <x:c r="A2112" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2113" spans="1:1">
+      <x:c r="A2113" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2114" spans="1:1">
+      <x:c r="A2114" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2115" spans="1:1">
+      <x:c r="A2115" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2116" spans="1:1">
+      <x:c r="A2116" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2117" spans="1:1">
+      <x:c r="A2117" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2118" spans="1:1">
+      <x:c r="A2118" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2119" spans="1:1">
+      <x:c r="A2119" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2120" spans="1:1">
+      <x:c r="A2120" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2121" spans="1:1">
+      <x:c r="A2121" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2122" spans="1:1">
+      <x:c r="A2122" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2123" spans="1:1">
+      <x:c r="A2123" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2124" spans="1:1">
+      <x:c r="A2124" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2125" spans="1:1">
+      <x:c r="A2125" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2126" spans="1:1">
+      <x:c r="A2126" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2127" spans="1:1">
+      <x:c r="A2127" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2128" spans="1:1">
+      <x:c r="A2128" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2129" spans="1:1">
+      <x:c r="A2129" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2130" spans="1:1">
+      <x:c r="A2130" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2131" spans="1:1">
+      <x:c r="A2131" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2132" spans="1:1">
+      <x:c r="A2132" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2133" spans="1:1">
+      <x:c r="A2133" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2134" spans="1:1">
+      <x:c r="A2134" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2135" spans="1:1">
+      <x:c r="A2135" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2136" spans="1:1">
+      <x:c r="A2136" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2137" spans="1:1">
+      <x:c r="A2137" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2138" spans="1:1">
+      <x:c r="A2138" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2139" spans="1:1">
+      <x:c r="A2139" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2140" spans="1:1">
+      <x:c r="A2140" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2141" spans="1:1">
+      <x:c r="A2141" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2142" spans="1:1">
+      <x:c r="A2142" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2143" spans="1:1">
+      <x:c r="A2143" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2144" spans="1:1">
+      <x:c r="A2144" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2145" spans="1:1">
+      <x:c r="A2145" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2146" spans="1:1">
+      <x:c r="A2146" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2147" spans="1:1">
+      <x:c r="A2147" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2148" spans="1:1">
+      <x:c r="A2148" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2149" spans="1:1">
+      <x:c r="A2149" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2150" spans="1:1">
+      <x:c r="A2150" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2151" spans="1:1">
+      <x:c r="A2151" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2152" spans="1:1">
+      <x:c r="A2152" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2153" spans="1:1">
+      <x:c r="A2153" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2154" spans="1:1">
+      <x:c r="A2154" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2155" spans="1:1">
+      <x:c r="A2155" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2156" spans="1:1">
+      <x:c r="A2156" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2157" spans="1:1">
+      <x:c r="A2157" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2158" spans="1:1">
+      <x:c r="A2158" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2159" spans="1:1">
+      <x:c r="A2159" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2160" spans="1:1">
+      <x:c r="A2160" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2161" spans="1:1">
+      <x:c r="A2161" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2162" spans="1:1">
+      <x:c r="A2162" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2163" spans="1:1">
+      <x:c r="A2163" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2164" spans="1:1">
+      <x:c r="A2164" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2165" spans="1:1">
+      <x:c r="A2165" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2166" spans="1:1">
+      <x:c r="A2166" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2167" spans="1:1">
+      <x:c r="A2167" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2168" spans="1:1">
+      <x:c r="A2168" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2169" spans="1:1">
+      <x:c r="A2169" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2170" spans="1:1">
+      <x:c r="A2170" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2171" spans="1:1">
+      <x:c r="A2171" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2172" spans="1:1">
+      <x:c r="A2172" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2173" spans="1:1">
+      <x:c r="A2173" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2174" spans="1:1">
+      <x:c r="A2174" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2175" spans="1:1">
+      <x:c r="A2175" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2176" spans="1:1">
+      <x:c r="A2176" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2177" spans="1:1">
+      <x:c r="A2177" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2178" spans="1:1">
+      <x:c r="A2178" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2179" spans="1:1">
+      <x:c r="A2179" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2180" spans="1:1">
+      <x:c r="A2180" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2181" spans="1:1">
+      <x:c r="A2181" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2182" spans="1:1">
+      <x:c r="A2182" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2183" spans="1:1">
+      <x:c r="A2183" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2184" spans="1:1">
+      <x:c r="A2184" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2185" spans="1:1">
+      <x:c r="A2185" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2186" spans="1:1">
+      <x:c r="A2186" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2187" spans="1:1">
+      <x:c r="A2187" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2188" spans="1:1">
+      <x:c r="A2188" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2189" spans="1:1">
+      <x:c r="A2189" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2190" spans="1:1">
+      <x:c r="A2190" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2191" spans="1:1">
+      <x:c r="A2191" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2192" spans="1:1">
+      <x:c r="A2192" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2193" spans="1:1">
+      <x:c r="A2193" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2194" spans="1:1">
+      <x:c r="A2194" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2195" spans="1:1">
+      <x:c r="A2195" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2196" spans="1:1">
+      <x:c r="A2196" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2197" spans="1:1">
+      <x:c r="A2197" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2198" spans="1:1">
+      <x:c r="A2198" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2199" spans="1:1">
+      <x:c r="A2199" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2200" spans="1:1">
+      <x:c r="A2200" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2201" spans="1:1">
+      <x:c r="A2201" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2202" spans="1:1">
+      <x:c r="A2202" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2203" spans="1:1">
+      <x:c r="A2203" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2204" spans="1:1">
+      <x:c r="A2204" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2205" spans="1:1">
+      <x:c r="A2205" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2206" spans="1:1">
+      <x:c r="A2206" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2207" spans="1:1">
+      <x:c r="A2207" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2208" spans="1:1">
+      <x:c r="A2208" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2209" spans="1:1">
+      <x:c r="A2209" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2210" spans="1:1">
+      <x:c r="A2210" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2211" spans="1:1">
+      <x:c r="A2211" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2212" spans="1:1">
+      <x:c r="A2212" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2213" spans="1:1">
+      <x:c r="A2213" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2214" spans="1:1">
+      <x:c r="A2214" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2215" spans="1:1">
+      <x:c r="A2215" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2216" spans="1:1">
+      <x:c r="A2216" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2217" spans="1:1">
+      <x:c r="A2217" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2218" spans="1:1">
+      <x:c r="A2218" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2219" spans="1:1">
+      <x:c r="A2219" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2220" spans="1:1">
+      <x:c r="A2220" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2221" spans="1:1">
+      <x:c r="A2221" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2222" spans="1:1">
+      <x:c r="A2222" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2223" spans="1:1">
+      <x:c r="A2223" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2224" spans="1:1">
+      <x:c r="A2224" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2225" spans="1:1">
+      <x:c r="A2225" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2226" spans="1:1">
+      <x:c r="A2226" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2227" spans="1:1">
+      <x:c r="A2227" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2228" spans="1:1">
+      <x:c r="A2228" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2229" spans="1:1">
+      <x:c r="A2229" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2230" spans="1:1">
+      <x:c r="A2230" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2231" spans="1:1">
+      <x:c r="A2231" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2232" spans="1:1">
+      <x:c r="A2232" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2233" spans="1:1">
+      <x:c r="A2233" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2234" spans="1:1">
+      <x:c r="A2234" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2235" spans="1:1">
+      <x:c r="A2235" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2236" spans="1:1">
+      <x:c r="A2236" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2237" spans="1:1">
+      <x:c r="A2237" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2238" spans="1:1">
+      <x:c r="A2238" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2239" spans="1:1">
+      <x:c r="A2239" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2240" spans="1:1">
+      <x:c r="A2240" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2241" spans="1:1">
+      <x:c r="A2241" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2242" spans="1:1">
+      <x:c r="A2242" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2243" spans="1:1">
+      <x:c r="A2243" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2244" spans="1:1">
+      <x:c r="A2244" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2245" spans="1:1">
+      <x:c r="A2245" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2246" spans="1:1">
+      <x:c r="A2246" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2247" spans="1:1">
+      <x:c r="A2247" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2248" spans="1:1">
+      <x:c r="A2248" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2249" spans="1:1">
+      <x:c r="A2249" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2250" spans="1:1">
+      <x:c r="A2250" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2251" spans="1:1">
+      <x:c r="A2251" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2252" spans="1:1">
+      <x:c r="A2252" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2253" spans="1:1">
+      <x:c r="A2253" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2254" spans="1:1">
+      <x:c r="A2254" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2255" spans="1:1">
+      <x:c r="A2255" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2256" spans="1:1">
+      <x:c r="A2256" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2257" spans="1:1">
+      <x:c r="A2257" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2258" spans="1:1">
+      <x:c r="A2258" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2259" spans="1:1">
+      <x:c r="A2259" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2260" spans="1:1">
+      <x:c r="A2260" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2261" spans="1:1">
+      <x:c r="A2261" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2262" spans="1:1">
+      <x:c r="A2262" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2263" spans="1:1">
+      <x:c r="A2263" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2264" spans="1:1">
+      <x:c r="A2264" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2265" spans="1:1">
+      <x:c r="A2265" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2266" spans="1:1">
+      <x:c r="A2266" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2267" spans="1:1">
+      <x:c r="A2267" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2268" spans="1:1">
+      <x:c r="A2268" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2269" spans="1:1">
+      <x:c r="A2269" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2270" spans="1:1">
+      <x:c r="A2270" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2271" spans="1:1">
+      <x:c r="A2271" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2272" spans="1:1">
+      <x:c r="A2272" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2273" spans="1:1">
+      <x:c r="A2273" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2274" spans="1:1">
+      <x:c r="A2274" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2275" spans="1:1">
+      <x:c r="A2275" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2276" spans="1:1">
+      <x:c r="A2276" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2277" spans="1:1">
+      <x:c r="A2277" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2278" spans="1:1">
+      <x:c r="A2278" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2279" spans="1:1">
+      <x:c r="A2279" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2280" spans="1:1">
+      <x:c r="A2280" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2281" spans="1:1">
+      <x:c r="A2281" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2282" spans="1:1">
+      <x:c r="A2282" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2283" spans="1:1">
+      <x:c r="A2283" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2284" spans="1:1">
+      <x:c r="A2284" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2285" spans="1:1">
+      <x:c r="A2285" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2286" spans="1:1">
+      <x:c r="A2286" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2287" spans="1:1">
+      <x:c r="A2287" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2288" spans="1:1">
+      <x:c r="A2288" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2289" spans="1:1">
+      <x:c r="A2289" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2290" spans="1:1">
+      <x:c r="A2290" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2291" spans="1:1">
+      <x:c r="A2291" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2292" spans="1:1">
+      <x:c r="A2292" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2293" spans="1:1">
+      <x:c r="A2293" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2294" spans="1:1">
+      <x:c r="A2294" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2295" spans="1:1">
+      <x:c r="A2295" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2296" spans="1:1">
+      <x:c r="A2296" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2297" spans="1:1">
+      <x:c r="A2297" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2298" spans="1:1">
+      <x:c r="A2298" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2299" spans="1:1">
+      <x:c r="A2299" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2300" spans="1:1">
+      <x:c r="A2300" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2301" spans="1:1">
+      <x:c r="A2301" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2302" spans="1:1">
+      <x:c r="A2302" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2303" spans="1:1">
+      <x:c r="A2303" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2304" spans="1:1">
+      <x:c r="A2304" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2305" spans="1:1">
+      <x:c r="A2305" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2306" spans="1:1">
+      <x:c r="A2306" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2307" spans="1:1">
+      <x:c r="A2307" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2308" spans="1:1">
+      <x:c r="A2308" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2309" spans="1:1">
+      <x:c r="A2309" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2310" spans="1:1">
+      <x:c r="A2310" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2311" spans="1:1">
+      <x:c r="A2311" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2312" spans="1:1">
+      <x:c r="A2312" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2313" spans="1:1">
+      <x:c r="A2313" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2314" spans="1:1">
+      <x:c r="A2314" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2315" spans="1:1">
+      <x:c r="A2315" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2316" spans="1:1">
+      <x:c r="A2316" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2317" spans="1:1">
+      <x:c r="A2317" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2318" spans="1:1">
+      <x:c r="A2318" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2319" spans="1:1">
+      <x:c r="A2319" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2320" spans="1:1">
+      <x:c r="A2320" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2321" spans="1:1">
+      <x:c r="A2321" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2322" spans="1:1">
+      <x:c r="A2322" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2323" spans="1:1">
+      <x:c r="A2323" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2324" spans="1:1">
+      <x:c r="A2324" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2325" spans="1:1">
+      <x:c r="A2325" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2326" spans="1:1">
+      <x:c r="A2326" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2327" spans="1:1">
+      <x:c r="A2327" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2328" spans="1:1">
+      <x:c r="A2328" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2329" spans="1:1">
+      <x:c r="A2329" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2330" spans="1:1">
+      <x:c r="A2330" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2331" spans="1:1">
+      <x:c r="A2331" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2332" spans="1:1">
+      <x:c r="A2332" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2333" spans="1:1">
+      <x:c r="A2333" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2334" spans="1:1">
+      <x:c r="A2334" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2335" spans="1:1">
+      <x:c r="A2335" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2336" spans="1:1">
+      <x:c r="A2336" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2337" spans="1:1">
+      <x:c r="A2337" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2338" spans="1:1">
+      <x:c r="A2338" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2339" spans="1:1">
+      <x:c r="A2339" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2340" spans="1:1">
+      <x:c r="A2340" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2341" spans="1:1">
+      <x:c r="A2341" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2342" spans="1:1">
+      <x:c r="A2342" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2343" spans="1:1">
+      <x:c r="A2343" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2344" spans="1:1">
+      <x:c r="A2344" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2345" spans="1:1">
+      <x:c r="A2345" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2346" spans="1:1">
+      <x:c r="A2346" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2347" spans="1:1">
+      <x:c r="A2347" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2348" spans="1:1">
+      <x:c r="A2348" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2349" spans="1:1">
+      <x:c r="A2349" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2350" spans="1:1">
+      <x:c r="A2350" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2351" spans="1:1">
+      <x:c r="A2351" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2352" spans="1:1">
+      <x:c r="A2352" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2353" spans="1:1">
+      <x:c r="A2353" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2354" spans="1:1">
+      <x:c r="A2354" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2355" spans="1:1">
+      <x:c r="A2355" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2356" spans="1:1">
+      <x:c r="A2356" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2357" spans="1:1">
+      <x:c r="A2357" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2358" spans="1:1">
+      <x:c r="A2358" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2359" spans="1:1">
+      <x:c r="A2359" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2360" spans="1:1">
+      <x:c r="A2360" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2361" spans="1:1">
+      <x:c r="A2361" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2362" spans="1:1">
+      <x:c r="A2362" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2363" spans="1:1">
+      <x:c r="A2363" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2364" spans="1:1">
+      <x:c r="A2364" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2365" spans="1:1">
+      <x:c r="A2365" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2366" spans="1:1">
+      <x:c r="A2366" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2367" spans="1:1">
+      <x:c r="A2367" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2368" spans="1:1">
+      <x:c r="A2368" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2369" spans="1:1">
+      <x:c r="A2369" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2370" spans="1:1">
+      <x:c r="A2370" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2371" spans="1:1">
+      <x:c r="A2371" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2372" spans="1:1">
+      <x:c r="A2372" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2373" spans="1:1">
+      <x:c r="A2373" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2374" spans="1:1">
+      <x:c r="A2374" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2375" spans="1:1">
+      <x:c r="A2375" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2376" spans="1:1">
+      <x:c r="A2376" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2377" spans="1:1">
+      <x:c r="A2377" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2378" spans="1:1">
+      <x:c r="A2378" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2379" spans="1:1">
+      <x:c r="A2379" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/src/label.2020-07-19.xlsx
+++ b/src/label.2020-07-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107" count="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172" count="172">
   <x:si>
     <x:t>type</x:t>
   </x:si>
@@ -1601,1392 +1601,1392 @@
     </x:row>
     <x:row r="245" spans="1:1">
       <x:c r="A245" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:1">
       <x:c r="A246" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:1">
       <x:c r="A247" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:1">
       <x:c r="A248" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:1">
       <x:c r="A249" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:1">
       <x:c r="A250" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:1">
       <x:c r="A251" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:1">
       <x:c r="A252" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:1">
       <x:c r="A253" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:1">
       <x:c r="A254" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:1">
       <x:c r="A255" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:1">
       <x:c r="A256" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:1">
       <x:c r="A257" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:1">
       <x:c r="A258" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:1">
       <x:c r="A259" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:1">
       <x:c r="A260" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:1">
       <x:c r="A261" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:1">
       <x:c r="A262" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:1">
       <x:c r="A263" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:1">
       <x:c r="A264" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:1">
       <x:c r="A265" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:1">
       <x:c r="A266" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:1">
       <x:c r="A267" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:1">
       <x:c r="A268" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:1">
       <x:c r="A269" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:1">
       <x:c r="A270" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:1">
       <x:c r="A271" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:1">
       <x:c r="A272" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:1">
       <x:c r="A273" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:1">
       <x:c r="A274" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:1">
       <x:c r="A275" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:1">
       <x:c r="A276" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:1">
       <x:c r="A277" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:1">
       <x:c r="A278" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:1">
       <x:c r="A279" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:1">
       <x:c r="A280" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:1">
       <x:c r="A281" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:1">
       <x:c r="A282" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:1">
       <x:c r="A283" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:1">
       <x:c r="A284" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:1">
       <x:c r="A285" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:1">
       <x:c r="A286" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:1">
       <x:c r="A287" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:1">
       <x:c r="A288" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:1">
       <x:c r="A289" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:1">
       <x:c r="A290" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:1">
       <x:c r="A291" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:1">
       <x:c r="A292" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:1">
       <x:c r="A293" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:1">
       <x:c r="A294" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:1">
       <x:c r="A295" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:1">
       <x:c r="A296" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:1">
       <x:c r="A297" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:1">
       <x:c r="A298" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:1">
       <x:c r="A299" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:1">
       <x:c r="A300" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:1">
       <x:c r="A301" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:1">
       <x:c r="A302" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:1">
       <x:c r="A303" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:1">
       <x:c r="A304" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:1">
       <x:c r="A305" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:1">
       <x:c r="A306" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:1">
       <x:c r="A307" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:1">
       <x:c r="A308" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:1">
       <x:c r="A309" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:1">
       <x:c r="A310" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:1">
       <x:c r="A311" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:1">
       <x:c r="A312" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:1">
       <x:c r="A313" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:1">
       <x:c r="A314" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:1">
       <x:c r="A315" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:1">
       <x:c r="A316" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:1">
       <x:c r="A317" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:1">
       <x:c r="A318" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:1">
       <x:c r="A319" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:1">
       <x:c r="A320" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:1">
       <x:c r="A321" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:1">
       <x:c r="A322" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:1">
       <x:c r="A323" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:1">
       <x:c r="A324" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:1">
       <x:c r="A325" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:1">
       <x:c r="A326" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:1">
       <x:c r="A327" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:1">
       <x:c r="A328" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:1">
       <x:c r="A329" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:1">
       <x:c r="A330" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:1">
       <x:c r="A331" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:1">
       <x:c r="A332" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:1">
       <x:c r="A333" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:1">
       <x:c r="A334" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:1">
       <x:c r="A335" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:1">
       <x:c r="A336" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:1">
       <x:c r="A337" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:1">
       <x:c r="A338" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:1">
       <x:c r="A339" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:1">
       <x:c r="A340" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:1">
       <x:c r="A341" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:1">
       <x:c r="A342" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:1">
       <x:c r="A343" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:1">
       <x:c r="A344" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:1">
       <x:c r="A345" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:1">
       <x:c r="A346" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:1">
       <x:c r="A347" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:1">
       <x:c r="A348" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:1">
       <x:c r="A349" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:1">
       <x:c r="A350" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="351" spans="1:1">
       <x:c r="A351" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="1:1">
       <x:c r="A352" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="1:1">
       <x:c r="A353" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="1:1">
       <x:c r="A354" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="1:1">
       <x:c r="A355" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="356" spans="1:1">
       <x:c r="A356" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="357" spans="1:1">
       <x:c r="A357" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="358" spans="1:1">
       <x:c r="A358" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="359" spans="1:1">
       <x:c r="A359" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="360" spans="1:1">
       <x:c r="A360" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="361" spans="1:1">
       <x:c r="A361" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="362" spans="1:1">
       <x:c r="A362" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="363" spans="1:1">
       <x:c r="A363" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="364" spans="1:1">
       <x:c r="A364" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="365" spans="1:1">
       <x:c r="A365" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="366" spans="1:1">
       <x:c r="A366" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="367" spans="1:1">
       <x:c r="A367" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="368" spans="1:1">
       <x:c r="A368" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="369" spans="1:1">
       <x:c r="A369" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="370" spans="1:1">
       <x:c r="A370" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="371" spans="1:1">
       <x:c r="A371" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="372" spans="1:1">
       <x:c r="A372" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="373" spans="1:1">
       <x:c r="A373" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="374" spans="1:1">
       <x:c r="A374" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="375" spans="1:1">
       <x:c r="A375" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="376" spans="1:1">
       <x:c r="A376" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="377" spans="1:1">
       <x:c r="A377" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="378" spans="1:1">
       <x:c r="A378" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="379" spans="1:1">
       <x:c r="A379" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="380" spans="1:1">
       <x:c r="A380" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="381" spans="1:1">
       <x:c r="A381" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="382" spans="1:1">
       <x:c r="A382" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="383" spans="1:1">
       <x:c r="A383" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="384" spans="1:1">
       <x:c r="A384" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="385" spans="1:1">
       <x:c r="A385" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="386" spans="1:1">
       <x:c r="A386" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="387" spans="1:1">
       <x:c r="A387" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="388" spans="1:1">
       <x:c r="A388" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="389" spans="1:1">
       <x:c r="A389" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="390" spans="1:1">
       <x:c r="A390" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="391" spans="1:1">
       <x:c r="A391" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="392" spans="1:1">
       <x:c r="A392" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="393" spans="1:1">
       <x:c r="A393" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="394" spans="1:1">
       <x:c r="A394" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="395" spans="1:1">
       <x:c r="A395" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="396" spans="1:1">
       <x:c r="A396" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="397" spans="1:1">
       <x:c r="A397" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="398" spans="1:1">
       <x:c r="A398" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="399" spans="1:1">
       <x:c r="A399" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="400" spans="1:1">
       <x:c r="A400" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="401" spans="1:1">
       <x:c r="A401" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="402" spans="1:1">
       <x:c r="A402" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="403" spans="1:1">
       <x:c r="A403" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="404" spans="1:1">
       <x:c r="A404" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="405" spans="1:1">
       <x:c r="A405" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="406" spans="1:1">
       <x:c r="A406" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="407" spans="1:1">
       <x:c r="A407" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="408" spans="1:1">
       <x:c r="A408" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="409" spans="1:1">
       <x:c r="A409" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="410" spans="1:1">
       <x:c r="A410" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="411" spans="1:1">
       <x:c r="A411" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="412" spans="1:1">
       <x:c r="A412" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="413" spans="1:1">
       <x:c r="A413" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="414" spans="1:1">
       <x:c r="A414" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="415" spans="1:1">
       <x:c r="A415" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="416" spans="1:1">
       <x:c r="A416" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="417" spans="1:1">
       <x:c r="A417" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="418" spans="1:1">
       <x:c r="A418" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="419" spans="1:1">
       <x:c r="A419" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="420" spans="1:1">
       <x:c r="A420" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="421" spans="1:1">
       <x:c r="A421" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="422" spans="1:1">
       <x:c r="A422" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="423" spans="1:1">
       <x:c r="A423" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="424" spans="1:1">
       <x:c r="A424" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="425" spans="1:1">
       <x:c r="A425" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="426" spans="1:1">
       <x:c r="A426" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="427" spans="1:1">
       <x:c r="A427" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="428" spans="1:1">
       <x:c r="A428" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="429" spans="1:1">
       <x:c r="A429" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="430" spans="1:1">
       <x:c r="A430" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="431" spans="1:1">
       <x:c r="A431" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="432" spans="1:1">
       <x:c r="A432" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="433" spans="1:1">
       <x:c r="A433" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="434" spans="1:1">
       <x:c r="A434" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="435" spans="1:1">
       <x:c r="A435" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="436" spans="1:1">
       <x:c r="A436" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="437" spans="1:1">
       <x:c r="A437" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="438" spans="1:1">
       <x:c r="A438" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="439" spans="1:1">
       <x:c r="A439" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="440" spans="1:1">
       <x:c r="A440" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="441" spans="1:1">
       <x:c r="A441" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="442" spans="1:1">
       <x:c r="A442" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="443" spans="1:1">
       <x:c r="A443" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="444" spans="1:1">
       <x:c r="A444" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="445" spans="1:1">
       <x:c r="A445" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="446" spans="1:1">
       <x:c r="A446" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="447" spans="1:1">
       <x:c r="A447" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="448" spans="1:1">
       <x:c r="A448" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="449" spans="1:1">
       <x:c r="A449" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="450" spans="1:1">
       <x:c r="A450" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="451" spans="1:1">
       <x:c r="A451" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="452" spans="1:1">
       <x:c r="A452" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="453" spans="1:1">
       <x:c r="A453" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="454" spans="1:1">
       <x:c r="A454" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="455" spans="1:1">
       <x:c r="A455" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="456" spans="1:1">
       <x:c r="A456" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="457" spans="1:1">
       <x:c r="A457" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="458" spans="1:1">
       <x:c r="A458" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="459" spans="1:1">
       <x:c r="A459" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="460" spans="1:1">
       <x:c r="A460" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="461" spans="1:1">
       <x:c r="A461" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="462" spans="1:1">
       <x:c r="A462" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="463" spans="1:1">
       <x:c r="A463" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="464" spans="1:1">
       <x:c r="A464" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="465" spans="1:1">
       <x:c r="A465" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="466" spans="1:1">
       <x:c r="A466" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="467" spans="1:1">
       <x:c r="A467" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="468" spans="1:1">
       <x:c r="A468" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="469" spans="1:1">
       <x:c r="A469" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="470" spans="1:1">
       <x:c r="A470" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="471" spans="1:1">
       <x:c r="A471" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:1">
       <x:c r="A472" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="473" spans="1:1">
       <x:c r="A473" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="474" spans="1:1">
       <x:c r="A474" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="475" spans="1:1">
       <x:c r="A475" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="476" spans="1:1">
       <x:c r="A476" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="477" spans="1:1">
       <x:c r="A477" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="478" spans="1:1">
       <x:c r="A478" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="479" spans="1:1">
       <x:c r="A479" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="480" spans="1:1">
       <x:c r="A480" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="481" spans="1:1">
       <x:c r="A481" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="482" spans="1:1">
       <x:c r="A482" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="483" spans="1:1">
       <x:c r="A483" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="484" spans="1:1">
       <x:c r="A484" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:1">
       <x:c r="A485" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:1">
       <x:c r="A486" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:1">
       <x:c r="A487" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="488" spans="1:1">
       <x:c r="A488" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="489" spans="1:1">
       <x:c r="A489" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="490" spans="1:1">
       <x:c r="A490" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="491" spans="1:1">
       <x:c r="A491" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="492" spans="1:1">
       <x:c r="A492" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="493" spans="1:1">
       <x:c r="A493" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="494" spans="1:1">
       <x:c r="A494" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="495" spans="1:1">
       <x:c r="A495" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="496" spans="1:1">
       <x:c r="A496" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="497" spans="1:1">
       <x:c r="A497" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="498" spans="1:1">
       <x:c r="A498" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="499" spans="1:1">
       <x:c r="A499" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="500" spans="1:1">
       <x:c r="A500" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="501" spans="1:1">
       <x:c r="A501" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="502" spans="1:1">
       <x:c r="A502" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="503" spans="1:1">
       <x:c r="A503" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="504" spans="1:1">
       <x:c r="A504" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="505" spans="1:1">
       <x:c r="A505" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="506" spans="1:1">
       <x:c r="A506" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="507" spans="1:1">
       <x:c r="A507" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="508" spans="1:1">
       <x:c r="A508" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="509" spans="1:1">
       <x:c r="A509" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="510" spans="1:1">
       <x:c r="A510" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="511" spans="1:1">
       <x:c r="A511" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="512" spans="1:1">
       <x:c r="A512" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="513" spans="1:1">
       <x:c r="A513" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="514" spans="1:1">
       <x:c r="A514" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="515" spans="1:1">
       <x:c r="A515" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="516" spans="1:1">
       <x:c r="A516" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="517" spans="1:1">
       <x:c r="A517" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="518" spans="1:1">
       <x:c r="A518" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="519" spans="1:1">
       <x:c r="A519" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="520" spans="1:1">
       <x:c r="A520" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="521" spans="1:1">
       <x:c r="A521" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="522" spans="1:1">
       <x:c r="A522" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="523" spans="1:1">
@@ -3186,1312 +3186,1557 @@
     </x:row>
     <x:row r="562" spans="1:1">
       <x:c r="A562" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="563" spans="1:1">
       <x:c r="A563" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="564" spans="1:1">
       <x:c r="A564" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="565" spans="1:1">
       <x:c r="A565" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:1">
       <x:c r="A566" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:1">
       <x:c r="A567" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:1">
       <x:c r="A568" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="569" spans="1:1">
       <x:c r="A569" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="570" spans="1:1">
       <x:c r="A570" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="571" spans="1:1">
       <x:c r="A571" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:1">
       <x:c r="A572" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:1">
       <x:c r="A573" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:1">
       <x:c r="A574" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="575" spans="1:1">
       <x:c r="A575" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="576" spans="1:1">
       <x:c r="A576" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="577" spans="1:1">
       <x:c r="A577" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="578" spans="1:1">
       <x:c r="A578" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:1">
       <x:c r="A579" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:1">
       <x:c r="A580" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:1">
       <x:c r="A581" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:1">
       <x:c r="A582" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:1">
       <x:c r="A583" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:1">
       <x:c r="A584" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:1">
       <x:c r="A585" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:1">
       <x:c r="A586" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:1">
       <x:c r="A587" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:1">
       <x:c r="A588" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:1">
       <x:c r="A589" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:1">
       <x:c r="A590" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:1">
       <x:c r="A591" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:1">
       <x:c r="A592" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="593" spans="1:1">
       <x:c r="A593" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="594" spans="1:1">
       <x:c r="A594" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:1">
       <x:c r="A595" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:1">
       <x:c r="A596" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:1">
       <x:c r="A597" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:1">
       <x:c r="A598" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="599" spans="1:1">
       <x:c r="A599" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="600" spans="1:1">
       <x:c r="A600" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="601" spans="1:1">
       <x:c r="A601" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="602" spans="1:1">
       <x:c r="A602" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="603" spans="1:1">
       <x:c r="A603" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="604" spans="1:1">
       <x:c r="A604" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:1">
       <x:c r="A605" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:1">
       <x:c r="A606" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:1">
       <x:c r="A607" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="608" spans="1:1">
       <x:c r="A608" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="609" spans="1:1">
       <x:c r="A609" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="610" spans="1:1">
       <x:c r="A610" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="611" spans="1:1">
       <x:c r="A611" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="612" spans="1:1">
       <x:c r="A612" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="613" spans="1:1">
       <x:c r="A613" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="614" spans="1:1">
       <x:c r="A614" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="615" spans="1:1">
       <x:c r="A615" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="616" spans="1:1">
       <x:c r="A616" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="617" spans="1:1">
       <x:c r="A617" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:1">
       <x:c r="A618" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:1">
       <x:c r="A619" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="620" spans="1:1">
       <x:c r="A620" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="621" spans="1:1">
       <x:c r="A621" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="622" spans="1:1">
       <x:c r="A622" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="623" spans="1:1">
       <x:c r="A623" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="624" spans="1:1">
       <x:c r="A624" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="625" spans="1:1">
       <x:c r="A625" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="626" spans="1:1">
       <x:c r="A626" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="627" spans="1:1">
       <x:c r="A627" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="628" spans="1:1">
       <x:c r="A628" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="629" spans="1:1">
       <x:c r="A629" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="630" spans="1:1">
       <x:c r="A630" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="631" spans="1:1">
       <x:c r="A631" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="632" spans="1:1">
       <x:c r="A632" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="633" spans="1:1">
       <x:c r="A633" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:1">
       <x:c r="A634" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="635" spans="1:1">
       <x:c r="A635" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="636" spans="1:1">
       <x:c r="A636" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="637" spans="1:1">
       <x:c r="A637" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="638" spans="1:1">
       <x:c r="A638" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="639" spans="1:1">
       <x:c r="A639" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="640" spans="1:1">
       <x:c r="A640" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="641" spans="1:1">
       <x:c r="A641" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="642" spans="1:1">
       <x:c r="A642" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="643" spans="1:1">
       <x:c r="A643" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="644" spans="1:1">
       <x:c r="A644" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="645" spans="1:1">
       <x:c r="A645" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="646" spans="1:1">
       <x:c r="A646" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="647" spans="1:1">
       <x:c r="A647" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="648" spans="1:1">
       <x:c r="A648" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="649" spans="1:1">
       <x:c r="A649" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="650" spans="1:1">
       <x:c r="A650" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="651" spans="1:1">
       <x:c r="A651" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="652" spans="1:1">
       <x:c r="A652" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="653" spans="1:1">
       <x:c r="A653" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="654" spans="1:1">
       <x:c r="A654" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="655" spans="1:1">
       <x:c r="A655" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:1">
       <x:c r="A656" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:1">
       <x:c r="A657" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="658" spans="1:1">
       <x:c r="A658" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="659" spans="1:1">
       <x:c r="A659" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="660" spans="1:1">
       <x:c r="A660" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="661" spans="1:1">
       <x:c r="A661" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="662" spans="1:1">
       <x:c r="A662" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="663" spans="1:1">
       <x:c r="A663" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="664" spans="1:1">
       <x:c r="A664" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="665" spans="1:1">
       <x:c r="A665" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="666" spans="1:1">
       <x:c r="A666" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="667" spans="1:1">
       <x:c r="A667" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="668" spans="1:1">
       <x:c r="A668" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="669" spans="1:1">
       <x:c r="A669" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:1">
       <x:c r="A670" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="671" spans="1:1">
       <x:c r="A671" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:1">
       <x:c r="A672" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="673" spans="1:1">
       <x:c r="A673" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="674" spans="1:1">
       <x:c r="A674" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="675" spans="1:1">
       <x:c r="A675" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="676" spans="1:1">
       <x:c r="A676" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="677" spans="1:1">
       <x:c r="A677" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="678" spans="1:1">
       <x:c r="A678" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="679" spans="1:1">
       <x:c r="A679" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="680" spans="1:1">
       <x:c r="A680" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="681" spans="1:1">
       <x:c r="A681" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="682" spans="1:1">
       <x:c r="A682" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="683" spans="1:1">
       <x:c r="A683" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="684" spans="1:1">
       <x:c r="A684" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="685" spans="1:1">
       <x:c r="A685" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="686" spans="1:1">
       <x:c r="A686" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="687" spans="1:1">
       <x:c r="A687" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="688" spans="1:1">
       <x:c r="A688" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="689" spans="1:1">
       <x:c r="A689" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="690" spans="1:1">
       <x:c r="A690" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="691" spans="1:1">
       <x:c r="A691" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="692" spans="1:1">
       <x:c r="A692" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="693" spans="1:1">
       <x:c r="A693" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="694" spans="1:1">
       <x:c r="A694" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="695" spans="1:1">
       <x:c r="A695" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="696" spans="1:1">
       <x:c r="A696" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="697" spans="1:1">
       <x:c r="A697" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="698" spans="1:1">
       <x:c r="A698" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="699" spans="1:1">
       <x:c r="A699" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="700" spans="1:1">
       <x:c r="A700" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="701" spans="1:1">
       <x:c r="A701" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="702" spans="1:1">
       <x:c r="A702" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="703" spans="1:1">
       <x:c r="A703" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="704" spans="1:1">
       <x:c r="A704" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="705" spans="1:1">
       <x:c r="A705" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="706" spans="1:1">
       <x:c r="A706" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="707" spans="1:1">
       <x:c r="A707" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="708" spans="1:1">
       <x:c r="A708" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="709" spans="1:1">
       <x:c r="A709" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="710" spans="1:1">
       <x:c r="A710" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="711" spans="1:1">
       <x:c r="A711" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="712" spans="1:1">
       <x:c r="A712" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="713" spans="1:1">
       <x:c r="A713" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="714" spans="1:1">
       <x:c r="A714" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="715" spans="1:1">
       <x:c r="A715" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="716" spans="1:1">
       <x:c r="A716" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="717" spans="1:1">
       <x:c r="A717" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="718" spans="1:1">
       <x:c r="A718" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="719" spans="1:1">
       <x:c r="A719" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="720" spans="1:1">
       <x:c r="A720" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="721" spans="1:1">
       <x:c r="A721" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="722" spans="1:1">
       <x:c r="A722" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="723" spans="1:1">
       <x:c r="A723" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="724" spans="1:1">
       <x:c r="A724" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="725" spans="1:1">
       <x:c r="A725" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="726" spans="1:1">
       <x:c r="A726" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="727" spans="1:1">
       <x:c r="A727" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="728" spans="1:1">
       <x:c r="A728" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="729" spans="1:1">
       <x:c r="A729" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="730" spans="1:1">
       <x:c r="A730" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="731" spans="1:1">
       <x:c r="A731" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="732" spans="1:1">
       <x:c r="A732" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="733" spans="1:1">
       <x:c r="A733" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="734" spans="1:1">
       <x:c r="A734" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="735" spans="1:1">
       <x:c r="A735" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="736" spans="1:1">
       <x:c r="A736" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="737" spans="1:1">
       <x:c r="A737" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:1">
       <x:c r="A738" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="739" spans="1:1">
       <x:c r="A739" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="740" spans="1:1">
       <x:c r="A740" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="741" spans="1:1">
       <x:c r="A741" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="742" spans="1:1">
       <x:c r="A742" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="743" spans="1:1">
       <x:c r="A743" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="744" spans="1:1">
       <x:c r="A744" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="745" spans="1:1">
       <x:c r="A745" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="746" spans="1:1">
       <x:c r="A746" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="747" spans="1:1">
       <x:c r="A747" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="748" spans="1:1">
       <x:c r="A748" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="749" spans="1:1">
       <x:c r="A749" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="750" spans="1:1">
       <x:c r="A750" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="751" spans="1:1">
       <x:c r="A751" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="752" spans="1:1">
       <x:c r="A752" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="753" spans="1:1">
       <x:c r="A753" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="754" spans="1:1">
       <x:c r="A754" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="755" spans="1:1">
       <x:c r="A755" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="756" spans="1:1">
       <x:c r="A756" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="757" spans="1:1">
       <x:c r="A757" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="758" spans="1:1">
       <x:c r="A758" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="759" spans="1:1">
       <x:c r="A759" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="760" spans="1:1">
       <x:c r="A760" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="761" spans="1:1">
       <x:c r="A761" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="762" spans="1:1">
       <x:c r="A762" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="763" spans="1:1">
       <x:c r="A763" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="764" spans="1:1">
       <x:c r="A764" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="765" spans="1:1">
       <x:c r="A765" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="766" spans="1:1">
       <x:c r="A766" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="767" spans="1:1">
       <x:c r="A767" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="768" spans="1:1">
       <x:c r="A768" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="769" spans="1:1">
       <x:c r="A769" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="770" spans="1:1">
       <x:c r="A770" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="771" spans="1:1">
       <x:c r="A771" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="772" spans="1:1">
       <x:c r="A772" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="773" spans="1:1">
       <x:c r="A773" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="774" spans="1:1">
       <x:c r="A774" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="775" spans="1:1">
       <x:c r="A775" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="776" spans="1:1">
       <x:c r="A776" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="777" spans="1:1">
       <x:c r="A777" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="778" spans="1:1">
       <x:c r="A778" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="779" spans="1:1">
       <x:c r="A779" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="780" spans="1:1">
       <x:c r="A780" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="781" spans="1:1">
       <x:c r="A781" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="782" spans="1:1">
       <x:c r="A782" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="783" spans="1:1">
       <x:c r="A783" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="784" spans="1:1">
       <x:c r="A784" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="785" spans="1:1">
       <x:c r="A785" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="786" spans="1:1">
       <x:c r="A786" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="787" spans="1:1">
       <x:c r="A787" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="788" spans="1:1">
       <x:c r="A788" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="789" spans="1:1">
       <x:c r="A789" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="790" spans="1:1">
       <x:c r="A790" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="791" spans="1:1">
       <x:c r="A791" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="792" spans="1:1">
       <x:c r="A792" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="793" spans="1:1">
       <x:c r="A793" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="794" spans="1:1">
       <x:c r="A794" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="795" spans="1:1">
       <x:c r="A795" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="796" spans="1:1">
       <x:c r="A796" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="797" spans="1:1">
       <x:c r="A797" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="798" spans="1:1">
       <x:c r="A798" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="799" spans="1:1">
       <x:c r="A799" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="800" spans="1:1">
       <x:c r="A800" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="801" spans="1:1">
       <x:c r="A801" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="802" spans="1:1">
       <x:c r="A802" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="803" spans="1:1">
       <x:c r="A803" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="804" spans="1:1">
       <x:c r="A804" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="805" spans="1:1">
       <x:c r="A805" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="806" spans="1:1">
       <x:c r="A806" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="807" spans="1:1">
       <x:c r="A807" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="808" spans="1:1">
       <x:c r="A808" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="809" spans="1:1">
       <x:c r="A809" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="810" spans="1:1">
       <x:c r="A810" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="811" spans="1:1">
       <x:c r="A811" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="812" spans="1:1">
       <x:c r="A812" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="813" spans="1:1">
       <x:c r="A813" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="814" spans="1:1">
       <x:c r="A814" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="815" spans="1:1">
       <x:c r="A815" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="816" spans="1:1">
       <x:c r="A816" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="817" spans="1:1">
       <x:c r="A817" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="818" spans="1:1">
       <x:c r="A818" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="819" spans="1:1">
       <x:c r="A819" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="820" spans="1:1">
       <x:c r="A820" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="821" spans="1:1">
       <x:c r="A821" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="822" spans="1:1">
       <x:c r="A822" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="823" spans="1:1">
       <x:c r="A823" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="824" spans="1:1">
+      <x:c r="A824" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="825" spans="1:1">
+      <x:c r="A825" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="826" spans="1:1">
+      <x:c r="A826" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="827" spans="1:1">
+      <x:c r="A827" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="828" spans="1:1">
+      <x:c r="A828" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="829" spans="1:1">
+      <x:c r="A829" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="830" spans="1:1">
+      <x:c r="A830" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="831" spans="1:1">
+      <x:c r="A831" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="832" spans="1:1">
+      <x:c r="A832" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="833" spans="1:1">
+      <x:c r="A833" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="834" spans="1:1">
+      <x:c r="A834" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="835" spans="1:1">
+      <x:c r="A835" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="836" spans="1:1">
+      <x:c r="A836" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="837" spans="1:1">
+      <x:c r="A837" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="838" spans="1:1">
+      <x:c r="A838" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="839" spans="1:1">
+      <x:c r="A839" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="840" spans="1:1">
+      <x:c r="A840" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="841" spans="1:1">
+      <x:c r="A841" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="842" spans="1:1">
+      <x:c r="A842" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="843" spans="1:1">
+      <x:c r="A843" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="844" spans="1:1">
+      <x:c r="A844" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="845" spans="1:1">
+      <x:c r="A845" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="846" spans="1:1">
+      <x:c r="A846" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="847" spans="1:1">
+      <x:c r="A847" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="848" spans="1:1">
+      <x:c r="A848" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="849" spans="1:1">
+      <x:c r="A849" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="850" spans="1:1">
+      <x:c r="A850" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="851" spans="1:1">
+      <x:c r="A851" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="852" spans="1:1">
+      <x:c r="A852" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="853" spans="1:1">
+      <x:c r="A853" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="854" spans="1:1">
+      <x:c r="A854" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="855" spans="1:1">
+      <x:c r="A855" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="856" spans="1:1">
+      <x:c r="A856" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="857" spans="1:1">
+      <x:c r="A857" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="858" spans="1:1">
+      <x:c r="A858" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="859" spans="1:1">
+      <x:c r="A859" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="860" spans="1:1">
+      <x:c r="A860" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="861" spans="1:1">
+      <x:c r="A861" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="862" spans="1:1">
+      <x:c r="A862" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="863" spans="1:1">
+      <x:c r="A863" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="864" spans="1:1">
+      <x:c r="A864" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="865" spans="1:1">
+      <x:c r="A865" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="866" spans="1:1">
+      <x:c r="A866" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="867" spans="1:1">
+      <x:c r="A867" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="868" spans="1:1">
+      <x:c r="A868" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="869" spans="1:1">
+      <x:c r="A869" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="870" spans="1:1">
+      <x:c r="A870" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="871" spans="1:1">
+      <x:c r="A871" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="872" spans="1:1">
+      <x:c r="A872" s="0" t="n">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
